--- a/biology/Médecine/Affection_provoquée_par_certains_dérivés_des_nitrosurées/Affection_provoquée_par_certains_dérivés_des_nitrosurées.xlsx
+++ b/biology/Médecine/Affection_provoquée_par_certains_dérivés_des_nitrosurées/Affection_provoquée_par_certains_dérivés_des_nitrosurées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Affection_provoqu%C3%A9e_par_certains_d%C3%A9riv%C3%A9s_des_nitrosur%C3%A9es</t>
+          <t>Affection_provoquée_par_certains_dérivés_des_nitrosurées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une affection provoquée par certains dérivés des nitrosurées peut être reconnue comme maladie professionnelle dans certains pays, sous certaines conditions.
 Cet article relève du domaine de la législation sur la protection sociale et a un caractère davantage juridique que médical.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Affection_provoqu%C3%A9e_par_certains_d%C3%A9riv%C3%A9s_des_nitrosur%C3%A9es</t>
+          <t>Affection_provoquée_par_certains_dérivés_des_nitrosurées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,89 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Données professionnelles
-Exposition dans l'industrie chimique et les laboratoires de biologie.
-Données médicales
-Plusieurs dérivés nitrés se sont montrés de puissants cancérogènes chez l’animal et quelques observations humaines (dont un homicide à la diméthylnitrosamine ayant provoqué un cancer du foie) permettent de conclure que ces substances sont aussi cancérogènes pour l’homme[2].Des cancers ont également été observés après exposition à la nitrosoguanidine dans un laboratoire[3].
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Affection_provoquée_par_certains_dérivés_des_nitrosurées</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affection_provoqu%C3%A9e_par_certains_d%C3%A9riv%C3%A9s_des_nitrosur%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>En  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Exposition dans l'industrie chimique et les laboratoires de biologie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Affection_provoquée_par_certains_dérivés_des_nitrosurées</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affection_provoqu%C3%A9e_par_certains_d%C3%A9riv%C3%A9s_des_nitrosur%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>En  France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs dérivés nitrés se sont montrés de puissants cancérogènes chez l’animal et quelques observations humaines (dont un homicide à la diméthylnitrosamine ayant provoqué un cancer du foie) permettent de conclure que ces substances sont aussi cancérogènes pour l’homme.Des cancers ont également été observés après exposition à la nitrosoguanidine dans un laboratoire.
 En l’absence de preuve formelle la nitrosoguanidine est seulement classée cancérogène probable pour l’homme dans la classification du CIRC.
-La mutagénèse provoquée par la méthyl-nitrosoguanidine serait due à la méthylation de la guanine[4].
+La mutagénèse provoquée par la méthyl-nitrosoguanidine serait due à la méthylation de la guanine.
 </t>
         </is>
       </c>
